--- a/saved/laporan_siujk.xlsx
+++ b/saved/laporan_siujk.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>PEMERINTAH KABUPATEN BIREUEN</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Kantor Pusat Pemerintahan Kabupaten Bireuen, Cot Gapu Telp (0644) 21212 BIREUEN</t>
   </si>
   <si>
-    <t>Daftar Surat Izin Tempat Usaha (SIUJK) Bulan 01 Tahun 2015</t>
+    <t>Laporan Surat Izin Usaha Jasa Konstruksi (SIUJK) Bulan 01 Tahun 2015</t>
   </si>
   <si>
     <t>No</t>
@@ -179,16 +179,127 @@
     <t>25 Agustus 2017</t>
   </si>
   <si>
-    <t>Kepala Kantor</t>
-  </si>
-  <si>
-    <t>Pelayanan Perizinan Terpadu Satu Pintu</t>
-  </si>
-  <si>
-    <t>M NASIR</t>
-  </si>
-  <si>
-    <t>NIP. 123456789 001 19363892</t>
+    <t>1.005123.1110.2.00006</t>
+  </si>
+  <si>
+    <t>EFNI ZAHARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "CV. AWE BEUTARI"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gp. Lhok Awe-awe</t>
+  </si>
+  <si>
+    <t>KUALA</t>
+  </si>
+  <si>
+    <t>14 Januari 2015</t>
+  </si>
+  <si>
+    <t>03 November 2017</t>
+  </si>
+  <si>
+    <t>1.012707.1110.2.00007</t>
+  </si>
+  <si>
+    <t>SURYADI NURDIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "CV.  SAUDARA SEPAKAT"</t>
+  </si>
+  <si>
+    <t>Jl. B. Aceh - Medan Gp. Matang Glp. Dua Mns. Dayah</t>
+  </si>
+  <si>
+    <t>15 Januari 2015</t>
+  </si>
+  <si>
+    <t>22 Mei 2018</t>
+  </si>
+  <si>
+    <t>1.018010.1110.2.00008</t>
+  </si>
+  <si>
+    <t>ABDUL MANAF ISDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "CV. AMICO GLOBAL"</t>
+  </si>
+  <si>
+    <t>Dsn. Balee Aron Gp. Bireuen Meunasah Blang</t>
+  </si>
+  <si>
+    <t>15 Januari 2018</t>
+  </si>
+  <si>
+    <t>1.005255.1110.2.00009</t>
+  </si>
+  <si>
+    <t>H. SYAHRIL MUSHERI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "CV. GAPU GAGAH GETNA"</t>
+  </si>
+  <si>
+    <t>Jl. Medan - B. Aceh Km. 220 Gp. Geulanggang Baro</t>
+  </si>
+  <si>
+    <t>BANGUNAN GEDUNG, JASA PELAKSANAAN SPESIALIS</t>
+  </si>
+  <si>
+    <t>19 Januari 2015</t>
+  </si>
+  <si>
+    <t>30 Mei 2017</t>
+  </si>
+  <si>
+    <t>1.007333.1110.2.00010</t>
+  </si>
+  <si>
+    <t>SYAHRUL RAMADHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "CV. UCOT COMMUNITY"</t>
+  </si>
+  <si>
+    <t>22 Januari 2015</t>
+  </si>
+  <si>
+    <t>29 Mei 2017</t>
+  </si>
+  <si>
+    <t>1.015876.1110.2.00011</t>
+  </si>
+  <si>
+    <t>MUNAWIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "CV. DAKOTA PERKASA"</t>
+  </si>
+  <si>
+    <t>Jl. Raya P. Ara Gp. Pulo Ara Geudong Teungoh</t>
+  </si>
+  <si>
+    <t>27 Januari 2015</t>
+  </si>
+  <si>
+    <t>19 Mei 2017</t>
+  </si>
+  <si>
+    <t>Kepala Kantor Pelayanan Perizinan Terpadu Satu Pintu</t>
+  </si>
+  <si>
+    <t>Kabupaten Bireuen</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NASIR, SP</t>
+  </si>
+  <si>
+    <t>PEMBINA</t>
+  </si>
+  <si>
+    <t>NIP. 19621231 198711 1 002</t>
   </si>
 </sst>
 </file>
@@ -621,10 +732,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -926,24 +1037,233 @@
       </c>
       <c r="L13" s="8"/>
     </row>
-    <row r="16" spans="1:12">
-      <c r="H16" t="s">
+    <row r="14" spans="1:12" customHeight="1" ht="30">
+      <c r="A14" s="7">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="H17" t="s">
+      <c r="C14" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="H21" t="s">
+      <c r="D14" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="E14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" customHeight="1" ht="30">
+      <c r="A15" s="7">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" customHeight="1" ht="30">
+      <c r="A16" s="7">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" customHeight="1" ht="30">
+      <c r="A17" s="7">
+        <v>9</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" customHeight="1" ht="30">
+      <c r="A18" s="7">
+        <v>10</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" customHeight="1" ht="30">
+      <c r="A19" s="7">
+        <v>11</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="8"/>
     </row>
     <row r="22" spans="1:12">
       <c r="H22" t="s">
-        <v>57</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="H23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="H27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="H28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="H29" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
